--- a/biology/Botanique/Mélampyre_des_prés/Mélampyre_des_prés.xlsx
+++ b/biology/Botanique/Mélampyre_des_prés/Mélampyre_des_prés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre_des_pr%C3%A9s</t>
+          <t>Mélampyre_des_prés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melampyrum pratense
 Le Mélampyre des prés (Melampyrum pratense), autrefois également appelé Millet des bois, Cochelet, Sarriette jaune est une plante herbacée annuelle de la famille des Orobanchacées (anciennement Scrofulariacées) qui pousse dans les sous-bois, dans les clairières de mi-ombre, ou dans les taches de lumière au sol dans une forêt localement moins dense. Elle est hémiparasite.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre_des_pr%C3%A9s</t>
+          <t>Mélampyre_des_prés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Habitat et aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Clairières forestières ou taches de lumière en forêt peu dense
 Ourlets externes de forêts acidophiles médioeuropéens
-La présence de cette espèce indique un sol présentant de grandes variétés d'humidité et pauvre en azote[1].
+La présence de cette espèce indique un sol présentant de grandes variétés d'humidité et pauvre en azote.
 Aire de répartition : eurasiatique
 Restauration d'habitats : l'English Nature, avec le centre d'élevage de Wildwood (Kent) ont constaté que la réintroduction du Castor dans le bois de Wildwood avait permis le retour de cette plante, et par suite la conservation d'une population de Mélitée du mélampyre, encore nommé Damier Athalie pour les Français ou "fritillaire de mai" pour les Anglais. Cette espèce est menacée par la raréfaction des prés embocagés, clairières et des taillis intra-forestiers qui avaient - après la disparition des grands mammifères herbivores - offert des habitats de substitution au mélampyre des prés et à son hôte, le papillon mélitée du mélampyre.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9lampyre_des_pr%C3%A9s</t>
+          <t>Mélampyre_des_prés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,49 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante moyenne de la strate herbacée, à feuilles opposées, lancéolées, vert sombre.
 Les fleurs sont jaune soufre.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mélampyre_des_prés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9lampyre_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-septembre
 Inflorescence : glomérules
@@ -566,34 +617,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9lampyre_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mélampyre_des_prés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9lampyre_des_pr%C3%A9s</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Organismes associés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce Mélampyre est hémiparasite[2] de chêne et de charmes[1]. 
-Plusieurs insectes et champignons sont associés à cette espèce[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce Mélampyre est hémiparasite de chêne et de charmes. 
+Plusieurs insectes et champignons sont associés à cette espèce :
 chez les Diptères (mouches), les larves de Phytomyza flavofemorata Strobl, 1893 se développent sur les jeunes fruits. La larve d'une autre espèce, Phytomyza rostrata Hering, 1934, est une mineuse des feuilles.
 chez les pucerons et les aleurodes ( Hémiptères Sternorrhynches), le Mélampyre des prés héberge Macrosiphum melampyri Mordvilko, 1919, Aphis coffeata Mamontova, 1979, Aleyrodes lonicerae Walker, 1852, et fait partie des hôtes secondaires de Brachycaudus persicae Passerini, 1860, de Aphis frangulae Kaltenbach, 1845.
 chez les punaises, il est une des principales plantes-hôte d'Adomerus biguttatus (Linnaeus, 1758) (Cydnidae), et de divers Miridae, Adelphocoris reichelii (Fieber, 1836), dont certains plus polyphages comme Capsodes flavomarginatus (Donovan, 1797), Lygocoris pabulinus (Linnaeus, 1761), Mecomma ambulans (Fallén, 1858), Phytocoris austriacus Wagner, 1954.
